--- a/metapr2_datasets.xlsx
+++ b/metapr2_datasets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1371">
   <si>
     <t xml:space="preserve">dataset_id</t>
   </si>
@@ -399,7 +399,7 @@
     <t xml:space="preserve">10.1111/jpy.12109</t>
   </si>
   <si>
-    <t xml:space="preserve">Tara_Oceans</t>
+    <t xml:space="preserve">Tara_Oceans_V9</t>
   </si>
   <si>
     <t xml:space="preserve">Tara Oceans - 2009-2012</t>
@@ -1413,10 +1413,10 @@
     <t xml:space="preserve">TTGGCAAATGCTTTCGC</t>
   </si>
   <si>
-    <t xml:space="preserve">BATS_2015_V4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda Atlantic Time-series Study - 2015 V4</t>
+    <t xml:space="preserve">BATS_2015_18S_V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda Atlantic Time-series Study - 2015 18S V4</t>
   </si>
   <si>
     <t xml:space="preserve">USEARCH OTU 0.97</t>
@@ -1443,10 +1443,10 @@
     <t xml:space="preserve">GATCCCYYAACTTTCGTTCTTGA</t>
   </si>
   <si>
-    <t xml:space="preserve">BATS_2015_V9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda Atlantic Time-series Study - 2015 V8-9</t>
+    <t xml:space="preserve">BATS_2015_18S_V9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda Atlantic Time-series Study - 2015 18S V8-9</t>
   </si>
   <si>
     <t xml:space="preserve">V8-V9</t>
@@ -3143,25 +3143,43 @@
     <t xml:space="preserve">926wF</t>
   </si>
   <si>
-    <t xml:space="preserve">French_alps_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Alps_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPARSE - OTU 0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasteris SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Alps</t>
+    <t xml:space="preserve">Okinawa_18S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okinawa 18S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1-V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BLAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okinawa, Japan</t>
   </si>
   <si>
     <t xml:space="preserve">DiBattista, J. D., Reimer, J. D., Stat, M., Masucci, G. D., Biondi, P., De Brauwer, M., Wilkinson, S. P., Chariton, A. A., &amp; Bunce, M. (2020). Environmental DNA can act as a biodiversity barometer of anthropogenic pressures in coastal ecosystems. Scientific Reports, 10(1), 8365. https://doi.org/10.1038/s41598-020-64858-9</t>
   </si>
   <si>
-    <t xml:space="preserve">?10.1038/s41598-020-64858-9</t>
+    <t xml:space="preserve">10.1038/s41598-020-64858-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.m37pvmczf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18S_uni_1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCAGTAGTCATATGCTTGTCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18S_uni_400R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCTGCTGCCTTCCTT</t>
   </si>
   <si>
     <t xml:space="preserve">Panama_2015</t>
@@ -3183,7 +3201,10 @@
     <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJNA507270</t>
   </si>
   <si>
-    <t xml:space="preserve">Fadeev, E., Salter, I., Schourup-Kristensen, V., N�thig, E. M., Metfies, K., Engel, A., Piontek, J., Boetius, A., &amp; Bienhold, C. (2018). Microbial communities in the east and west fram strait during sea ice melting season. Frontiers in Marine Science, 5(NOV), 429. https://doi.org/10.3389/fmars.2018.00429	</t>
+    <t xml:space="preserve">Rodas, A. M., Wright, R. M., Buie, L. K., Aichelman, H. E., Castillo, K. D., &amp; Davies, S. W. (2020). Eukaryotic plankton communities across reef environments in Bocas del Toro Archipelago, Panam�. Coral Reefs, 1�15. https://doi.org/10.1007/s00338-020-01979-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/s00338-020-01979-7</t>
   </si>
   <si>
     <t xml:space="preserve">NZ_southland_front_2017</t>
@@ -3400,6 +3421,716 @@
   </si>
   <si>
     <t xml:space="preserve">?10.1371/journal.pone.0209857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French_alps_lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Alps lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPARSE - OTU 0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Bourget and Annecy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capo, E., Debroas, D., Arnaud, F., Perga, M.-E., Chardon, C., &amp; Domaizon, I. (2017). Tracking a century of changes in microbial eukaryotic diversity in lakes driven by nutrient enrichment and climate warming. Environmental Microbiology, 19(7), 2873�2892. https://doi.org/10.1111/1462-2920.13815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1111/1462-2920.13815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okinawa_ITS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okinawa ITS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scl58SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARTCTTTGAACGCAAATGGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scl28SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTTATTAATATGCTTAAATTCAGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthozoa and Demospongiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biofilm_Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biofilm port 16S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chloroplast?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese Atlantic Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biofilm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJEB33600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJEB33600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antunes, J. T., Sousa, A. G. G., Azevedo, J., Rego, A., Le�o, P. N., &amp; Vasconcelos, V. (2020). Distinct Temporal Succession of Bacterial Communities in Early Marine Biofilms in a Portuguese Atlantic Port. Frontiers in Microbiology, 11, 1938. https://doi.org/10.3389/fmicb.2020.01938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.3389/fmicb.2020.01938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">785R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antartica_2012_plastid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antartica 2012 plastid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fildes Bay, Antarctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA280421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJNA280421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreno-Pino, M., De la Iglesia, R., Valdivia, N., Henr�quez-Castilo, C., Gal�n, A., D�ez, B., &amp; Trefault, N. (2016). Variation in coastal Antarctic microbial community composition at sub-mesoscale: spatial distance or environmental filtering? FEMS Microbiology Ecology, 92(7), fiw088. https://doi.org/10.1093/femsec/fiw088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1093/femsec/fiw088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLA491F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGGAATAAGCATCGGCTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXY1313R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTCACGTAGGCGAGTTGCAGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photosynthetic eukaryotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South_America_lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South America lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uclust - OTU 0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakes in South America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJEB31039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJEB31039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metz, S., Dos Santos, A. L., Berman, M. C., Bigeard, E., Licursi, M., Not, F., Lara, E., &amp; Unrein, F. (2019). Diversity of photosynthetic picoeukaryotes in eutrophic shallow lakes as assessed by combining flow cytometry cell-sorting and high throughput sequencing. FEMS Microbiology Ecology, 95(5). https://doi.org/10.1093/femsec/fiz038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/femsec/fiz038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuse_river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuse river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuse River Estuary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA413761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJNA413761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gong, W., Hall, N., Paerl, H., &amp; Marchetti, A. (2020). Phytoplankton composition in a eutrophic estuary: Comparison of multiple taxonomic approaches and influence of environmental factors. Environmental Microbiology, 1462-2920.15221. https://doi.org/10.1111/1462-2920.15221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1111/1462-2920.15221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmer_LTER_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmer LTER 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Antarctic Peninsula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA299401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJNA299401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lin, Y., Cassar, N., Marchetti, A., Moreno, C., Ducklow, H., &amp; Li, Z. (2017). Specific eukaryotic plankton are good predictors of net community production in the Western Antarctic Peninsula. Scientific Reports, 7(1), 1�11. https://doi.org/10.1038/s41598-017-14109-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1038/s41598-017-14109-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATS_1997_2004_16S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda Atlantic Time-series Study 1997-2004 16S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAFFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA489478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJNA489478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choi, C. J., Jimenez, V., Needham, D. M., Poirier, C., Bachy, C., Alexander, H., Wilken, S., Chavez, F. P., Sudek, S., Giovannoni, S. J., &amp; Worden, A. Z. (2020). Seasonal and Geographical Transitions in Eukaryotic Phytoplankton Community Structure in the Atlantic and Pacific Oceans. Frontiers in Microbiology, 11(September). https://doi.org/10.3389/fmicb.2020.542372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.3389/fmicb.2020.542372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?27FB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?AGRGTTYGATYMTGGCTCAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?338RPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?GCWGCCWCCCGTAGGWGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NW_Mediterranean_Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NW Mediterranean Coast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NW Mediterranean coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?PRJEB23788, PRJEB38773, PRJEB38800 and PRJEB38808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrera, I., Re��, A., Funosas, D., Camp, J., Massana, R., Gasol, J. M., &amp; Garc�s, E. (2020). Assessment of microbial plankton diversity as an ecological indicator in the NW Mediterranean coast. Marine Pollution Bulletin, 160(September), 111691. https://doi.org/10.1016/j.marpolbul.2020.111691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1016/j.marpolbul.2020.111691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake_Fuxian_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Fuxian 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Fuxian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?PRJNA534173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA534173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shi, X., Li, S., Li, H., Chen, F., &amp; Wu, Q. (2019). The Community Structure of Picophytoplankton in Lake Fuxian, a Deep and Oligotrophic Mountain Lake. Frontiers in Microbiology, 10(September), 1�11. https://doi.org/10.3389/fmicb.2019.02016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.3389/fmicb.2019.02016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?NSF573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?CGCGGTAATTCCAGCTCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangtze_river_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangtze river 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPARSE - OTU 0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangtze river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shi, X., Li, S., Liu, C., Zhang, M., &amp; Liu, M. (2018). Community structure of photosynthetic picoeukaryotes differs in lakes with different trophic statuses along the middle-lower reaches of the Yangtze River. FEMS Microbiology Ecology, 94(4), 1�11. https://doi.org/10.1093/femsec/fiy011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1093/femsec/fiy011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake_Chaohu_2014_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Chaohu 2014-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Chaohu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?PRJNA534176 and PRJNA330896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA534176
+https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA330896
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shi, X., Li, S., Zhang, M., Liu, C., &amp; Wu, Q. (2020). Temperature mainly determines the temporal succession of the photosynthetic picoeukaryote community in Lake Chaohu, a highly eutrophic shallow lake. Science of The Total Environment, 702, 134803. https://doi.org/10.1016/j.scitotenv.2019.134803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1016/j.scitotenv.2019.134803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?Saint_Charles_River_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?Saint-Charles River 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?Saint-Charles River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?PRJNA541322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA541322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruaud, P., Vigneron, A., Dorea, C. C., Rodriguez, M. J., &amp; Charette, S. J. (2020). Rapid Changes in Microbial Community Structures along a Meandering River. Microorganisms, 8(11), 1631. https://doi.org/10.3390/microorganisms8111631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.3390/microorganisms8111631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?E572F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?E1009R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South_China_Sea_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South China Sea 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?northern South China Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?PRJNA628544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gong, F., Li, G., Wang, Y., Liu, Q., Huang, F., Yin, K., &amp; Gong, J. (2020). Spatial shifts in size structure, phylogenetic diversity, community composition and abundance of small eukaryotic plankton in a coastal upwelling area of the northern South China Sea. Journal of Plankton Research, 1�18. https://doi.org/10.1093/plankt/fbaa046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1093/plankt/fbaa046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?528F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?GCGGTAATTCCAGCTCCAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?706R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?AATCCRAGAATTTCACCTCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwestern_Pacific_Ocean_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwestern Pacific Ocean 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?northwestern Pacific Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?PRJNA476806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA476806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu, P. F., Li, D. X., Kong, L. F., Li, Y. Y., Zhang, H., Xie, Z. X., Lin, L., &amp; Wang, D. Z. (2020). The diversity and biogeography of microeukaryotes in the euphotic zone of the northwestern Pacific Ocean. Science of the Total Environment, 698, 134289. https://doi.org/10.1016/j.scitotenv.2019.134289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1016/j.scitotenv.2019.134289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazilian_Atlantic_Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazilian Atlantic Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freshwater, estuarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?PRJEB37554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernandes, N. M., Campello-Nunes, P. H., Paiva, T. S., Soraes, C. A. G., &amp; Silva-Neto, I. D. (2020). Ciliate Diversity From Aquatic Environments in the Brazilian Atlantic Forest as Revealed by High-Throughput DNA Sequencing. Microbial Ecology. https://doi.org/10.1007/s00248-020-01612-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1007/s00248-020-01612-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okinawa_Trough_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okinawa Trough 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okinawa trough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?PRJNA546472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJNA546472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?Mars Brisbin, M., Conover, A. E., &amp; Mitarai, S. (2020). Influence of Regional Oceanography and Hydrothermal Activity on Protist Diversity and Community Structure in the Okinawa Trough. Microbial Ecology, 746�761. https://doi.org/10.1007/s00248-020-01583-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1007/s00248-020-01583-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?ACTTTCGTTCTTGATYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alboran_Sea_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alboran Sea 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?northwestern Alboran Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garc�a-G�mez, C., Yebra, L., Cort�s, D., S�nchez, A., Alonso, A., Valc�rcel-P�rez, N., G�mez-Jakobsen, F., Herrera, I., Johnstone, C., &amp; Mercado, J. M. (2020). Shifts in the protist community associated to an anticyclonic gyre in the Alboran Sea (Mediterranean Sea). FEMS Microbiology Ecology, September, 1�12. https://doi.org/10.1093/femsec/fiaa197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1093/femsec/fiaa197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?1510R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shayang_river_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shayang River 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaying River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li, F., Altermatt, F., Yang, J., An, S., Li, A., &amp; Zhang, X. (2020). Human activities� fingerprint on multitrophic biodiversity and ecosystem functions across a major river catchment in China. Global Change Biology, August, 1�13. https://doi.org/10.1111/gcb.15357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1111/gcb.15357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1380F modified?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCCTGCCHTTTGTACACAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balearic_Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balearic Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swarm - OTU 0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?Balearic Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water, rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antich, A., Palac�n, C., Cebrian, E., Golo, R., Wangensteen, O. S., &amp; Turon, X. (2020). Marine biomonitoring with eDNA: Can metabarcoding of water samples cut it as a tool for surveying benthic communities? Molecular Ecology, August, mec.15641. https://doi.org/10.1111/mec.15641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?10.1111/mec.15641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.vt4b8gtq2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?jgHCO2198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?TAIACYTCIGGRTGICCRAARAAYCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?mlCOIintF-XT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?GGWACWRGWTGRACWITITAYCCYCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baikal_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baikal 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEARCH-UPARSE-OTU99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJEB24415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB24415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annenkova, N. V., Giner, C. R., &amp; Logares, R. (2020). Tracing the Origin of Planktonic Protists in an Ancient Lake.�Microorganisms,�8(4), 543.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/microorganisms8040543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAReukFWD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAGCASCYGCGGTAAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevreuse_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevreuse 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTU 98%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA259710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJNA259710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon, M., Jardillier, L., Deschamps, P., Moreira, D., Restoux, G., Bertolino, P., &amp; L�pez?Garc�a, P. (2015). Complex communities of small protists and unexpected occurrence of typical marine lineages in shallow freshwater systems. Environmental microbiology, 17(10), 3610-3627.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/1462-2920.12591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EK?565F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18s?EUK? 1134?R? UNonMet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain_lakes_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain lakes 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qiime, Swarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SeqIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria Chile Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA299108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJNA299108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filker, S., Sommaruga, R., Vila, I., &amp; Stoeck, T. (2016). Microbial eukaryote plankton communities of high?mountain lakes from three continents exhibit strong biogeographic patterns.�Molecular ecology,�25(10), 2286-2301.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/mec.13633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake_Garda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/PRJEB36925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmaso, N., Boscaini, A., &amp; Pindo, M. (2020). Unraveling the diversity of eukaryotic microplankton in a large and deep perialpine lake using a high throughput sequencing approach. Frontiers in Microbiology, 11, 789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAReukREV3_modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parana_river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parana river</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cornell University Sequencing Core </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJEB23471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB23471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroyo, A. S., L�pez-Escard�, D., Kim, E., Ruiz-Trillo, I., &amp; Najle, S. R. (2018). Novel diversity of deeply branching Holomycota and unicellular holozoans revealed by metabarcoding in Middle Paran� River, Argentina. Frontiers in Ecology and Evolution, 6, 99.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fevo.2018.00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina_lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vsearch and swarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina Hiseq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJEB41211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB41211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, D., Seppey, C.V., Lentendu, G., Dunthorn, M., Bass, D., Belbahri, L., Blandenier, Q., Debroas, D., de Groot, G.A., De Vargas, C. and Domaizon, I., Protist taxonomic and functional diversity in soil, freshwater and marine ecosystems. Environment International, 146, p.106262.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.envint.2020.106262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scandinavian_lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scandinavian lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scandinavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi:10.5061/dryad.7s6s8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khomich, M., Kauserud, H., Logares, R., Rasconi, S., &amp; Andersen, T. (2017). Planktonic protistan communities in lakes along a large-scale environmental gradient. FEMS Microbiology Ecology, 93(4), fiw231.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/femsec/fiw231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.7s6s8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara_Ocean_V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara Ocean V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18s_rRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina�</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB6610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibarbalz, F. M., Henry, N., Brand�o, M. C., Martini, S., Busseni, G., Byrne, H., ... &amp; Mah�, F. (2019). Global trends in marine plankton diversity across kingdoms of life. Cell, 179(5), 1084-1097.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi.org/10.1016/j.cell.2019.10.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara_Arctic_V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara Arctic V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB9737</t>
   </si>
 </sst>
 </file>
@@ -7318,7 +8049,9 @@
       <c r="H48" t="s">
         <v>33</v>
       </c>
-      <c r="I48"/>
+      <c r="I48" t="s">
+        <v>162</v>
+      </c>
       <c r="J48"/>
       <c r="K48" t="s">
         <v>388</v>
@@ -7394,7 +8127,9 @@
       <c r="H49" t="s">
         <v>33</v>
       </c>
-      <c r="I49"/>
+      <c r="I49" t="s">
+        <v>142</v>
+      </c>
       <c r="J49"/>
       <c r="K49" t="s">
         <v>388</v>
@@ -13613,63 +14348,65 @@
         <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>754</v>
-      </c>
-      <c r="F131"/>
+        <v>1044</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1045</v>
+      </c>
       <c r="G131" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="H131" t="s">
         <v>33</v>
       </c>
-      <c r="I131" t="s">
-        <v>162</v>
-      </c>
-      <c r="J131" t="s">
-        <v>1045</v>
-      </c>
+      <c r="I131"/>
+      <c r="J131"/>
       <c r="K131" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L131" t="s">
-        <v>343</v>
+        <v>165</v>
       </c>
       <c r="M131" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N131" t="n">
-        <v>45.6</v>
+        <v>26</v>
       </c>
       <c r="O131" t="n">
-        <v>45.9</v>
+        <v>27</v>
       </c>
       <c r="P131" t="n">
-        <v>5.8</v>
+        <v>127</v>
       </c>
       <c r="Q131" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="R131"/>
+        <v>128</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1</v>
+      </c>
       <c r="S131"/>
       <c r="T131"/>
       <c r="U131" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="V131" t="s">
-        <v>1048</v>
-      </c>
-      <c r="W131"/>
+        <v>1049</v>
+      </c>
+      <c r="W131" t="s">
+        <v>1050</v>
+      </c>
       <c r="X131" t="s">
-        <v>761</v>
+        <v>1051</v>
       </c>
       <c r="Y131" t="s">
-        <v>762</v>
+        <v>1052</v>
       </c>
       <c r="Z131" t="s">
-        <v>763</v>
+        <v>1053</v>
       </c>
       <c r="AA131" t="s">
-        <v>764</v>
+        <v>1054</v>
       </c>
       <c r="AB131"/>
     </row>
@@ -13678,10 +14415,10 @@
         <v>163</v>
       </c>
       <c r="B132" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C132" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="D132" t="s">
         <v>30</v>
@@ -13700,10 +14437,10 @@
         <v>142</v>
       </c>
       <c r="J132" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="K132" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="L132" t="s">
         <v>165</v>
@@ -13727,16 +14464,16 @@
         <v>1</v>
       </c>
       <c r="S132" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="T132" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="U132" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="V132" t="s">
-        <v>1022</v>
+        <v>1062</v>
       </c>
       <c r="W132"/>
       <c r="X132" t="s">
@@ -13758,10 +14495,10 @@
         <v>164</v>
       </c>
       <c r="B133" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="C133" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="D133" t="s">
         <v>30</v>
@@ -13781,7 +14518,7 @@
       </c>
       <c r="J133"/>
       <c r="K133" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="L133" t="s">
         <v>57</v>
@@ -13805,29 +14542,29 @@
         <v>1</v>
       </c>
       <c r="S133" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="T133" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="U133" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="V133" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="W133"/>
       <c r="X133" t="s">
         <v>43</v>
       </c>
       <c r="Y133" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="Z133" t="s">
         <v>158</v>
       </c>
       <c r="AA133" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="AB133"/>
     </row>
@@ -13836,10 +14573,10 @@
         <v>165</v>
       </c>
       <c r="B134" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="C134" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="D134" t="s">
         <v>30</v>
@@ -13856,10 +14593,10 @@
       </c>
       <c r="I134"/>
       <c r="J134" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="K134" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="L134" t="s">
         <v>57</v>
@@ -13875,16 +14612,16 @@
         <v>1</v>
       </c>
       <c r="S134" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="T134" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="U134" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="V134" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="W134"/>
       <c r="X134" t="s">
@@ -13906,10 +14643,10 @@
         <v>166</v>
       </c>
       <c r="B135" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="C135" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="D135" t="s">
         <v>30</v>
@@ -13919,7 +14656,7 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="H135" t="s">
         <v>33</v>
@@ -13929,7 +14666,7 @@
       </c>
       <c r="J135"/>
       <c r="K135" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="L135" t="s">
         <v>343</v>
@@ -13953,16 +14690,16 @@
         <v>1</v>
       </c>
       <c r="S135" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="T135" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="U135" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="V135" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="W135"/>
       <c r="X135" t="s">
@@ -13984,10 +14721,10 @@
         <v>167</v>
       </c>
       <c r="B136" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="C136" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="D136" t="s">
         <v>30</v>
@@ -14005,7 +14742,7 @@
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="L136" t="s">
         <v>343</v>
@@ -14029,16 +14766,16 @@
         <v>1</v>
       </c>
       <c r="S136" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="T136" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="U136" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="V136" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="W136"/>
       <c r="X136" t="s">
@@ -14060,10 +14797,10 @@
         <v>168</v>
       </c>
       <c r="B137" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="C137" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="D137" t="s">
         <v>30</v>
@@ -14081,7 +14818,7 @@
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="L137" t="s">
         <v>57</v>
@@ -14105,10 +14842,10 @@
       <c r="S137"/>
       <c r="T137"/>
       <c r="U137" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="V137" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="W137"/>
       <c r="X137" t="s">
@@ -14130,10 +14867,10 @@
         <v>169</v>
       </c>
       <c r="B138" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="C138" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="D138" t="s">
         <v>30</v>
@@ -14173,27 +14910,27 @@
       </c>
       <c r="R138"/>
       <c r="S138" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="T138"/>
       <c r="U138" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="V138" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="W138"/>
       <c r="X138" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="Y138" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="Z138" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="AA138" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="AB138"/>
     </row>
@@ -14202,10 +14939,10 @@
         <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="C139" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="D139" t="s">
         <v>30</v>
@@ -14215,7 +14952,7 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="H139" t="s">
         <v>69</v>
@@ -14223,7 +14960,7 @@
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="L139" t="s">
         <v>57</v>
@@ -14247,29 +14984,29 @@
         <v>1</v>
       </c>
       <c r="S139" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="T139" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="U139" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="V139" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="W139"/>
       <c r="X139" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="Y139" t="s">
         <v>762</v>
       </c>
       <c r="Z139" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="AA139" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="AB139"/>
     </row>
@@ -14278,10 +15015,10 @@
         <v>172</v>
       </c>
       <c r="B140" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="C140" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="D140" t="s">
         <v>30</v>
@@ -14291,7 +15028,7 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="H140" t="s">
         <v>33</v>
@@ -14301,7 +15038,7 @@
       </c>
       <c r="J140"/>
       <c r="K140" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
       <c r="L140" t="s">
         <v>57</v>
@@ -14325,29 +15062,29 @@
         <v>1</v>
       </c>
       <c r="S140" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
       <c r="T140" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="U140" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="V140" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="W140"/>
       <c r="X140" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="Y140" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="Z140" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="AA140" t="s">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="AB140"/>
     </row>
@@ -14356,10 +15093,10 @@
         <v>173</v>
       </c>
       <c r="B141" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="C141" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="D141" t="s">
         <v>30</v>
@@ -14379,7 +15116,7 @@
       </c>
       <c r="J141"/>
       <c r="K141" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="L141" t="s">
         <v>486</v>
@@ -14409,10 +15146,10 @@
         <v>797</v>
       </c>
       <c r="U141" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="V141" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="W141"/>
       <c r="X141" t="s">
@@ -14428,6 +15165,2138 @@
         <v>138</v>
       </c>
       <c r="AB141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>174</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D142" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" t="s">
+        <v>754</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H142" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" t="s">
+        <v>162</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L142" t="s">
+        <v>343</v>
+      </c>
+      <c r="M142" t="s">
+        <v>268</v>
+      </c>
+      <c r="N142" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="O142" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="P142" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142" t="s">
+        <v>1139</v>
+      </c>
+      <c r="V142" t="s">
+        <v>1140</v>
+      </c>
+      <c r="W142"/>
+      <c r="X142" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>762</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>763</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>175</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L143" t="s">
+        <v>165</v>
+      </c>
+      <c r="M143" t="s">
+        <v>259</v>
+      </c>
+      <c r="N143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O143" t="n">
+        <v>27</v>
+      </c>
+      <c r="P143" t="n">
+        <v>127</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>128</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1</v>
+      </c>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143" t="s">
+        <v>1048</v>
+      </c>
+      <c r="V143" t="s">
+        <v>1049</v>
+      </c>
+      <c r="W143" t="s">
+        <v>1050</v>
+      </c>
+      <c r="X143" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>1145</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>176</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D144" t="s">
+        <v>543</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H144" t="s">
+        <v>33</v>
+      </c>
+      <c r="I144" t="s">
+        <v>142</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L144" t="s">
+        <v>165</v>
+      </c>
+      <c r="M144" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N144" t="n">
+        <v>41.1776</v>
+      </c>
+      <c r="O144" t="n">
+        <v>41.1776</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-8.70244</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>-8.70244</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1</v>
+      </c>
+      <c r="S144" t="s">
+        <v>1155</v>
+      </c>
+      <c r="T144" t="s">
+        <v>1156</v>
+      </c>
+      <c r="U144" t="s">
+        <v>1157</v>
+      </c>
+      <c r="V144" t="s">
+        <v>1158</v>
+      </c>
+      <c r="W144"/>
+      <c r="X144" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>177</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D145" t="s">
+        <v>543</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>781</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H145" t="s">
+        <v>69</v>
+      </c>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L145" t="s">
+        <v>165</v>
+      </c>
+      <c r="M145" t="s">
+        <v>37</v>
+      </c>
+      <c r="N145" t="n">
+        <v>-62.2927</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-62.17</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-58.9425</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>-58.7341</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1</v>
+      </c>
+      <c r="S145" t="s">
+        <v>1163</v>
+      </c>
+      <c r="T145" t="s">
+        <v>1164</v>
+      </c>
+      <c r="U145" t="s">
+        <v>1165</v>
+      </c>
+      <c r="V145" t="s">
+        <v>1166</v>
+      </c>
+      <c r="W145"/>
+      <c r="X145" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>178</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D146" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146"/>
+      <c r="G146" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L146" t="s">
+        <v>343</v>
+      </c>
+      <c r="M146" t="s">
+        <v>37</v>
+      </c>
+      <c r="N146" t="n">
+        <v>-35.881</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-38.522</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-62.873</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>-57.406</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1</v>
+      </c>
+      <c r="S146" t="s">
+        <v>1176</v>
+      </c>
+      <c r="T146" t="s">
+        <v>1177</v>
+      </c>
+      <c r="U146" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V146" t="s">
+        <v>1179</v>
+      </c>
+      <c r="W146"/>
+      <c r="X146" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>179</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D147" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147"/>
+      <c r="G147" t="s">
+        <v>325</v>
+      </c>
+      <c r="H147" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" t="s">
+        <v>162</v>
+      </c>
+      <c r="J147"/>
+      <c r="K147" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L147" t="s">
+        <v>486</v>
+      </c>
+      <c r="M147" t="s">
+        <v>37</v>
+      </c>
+      <c r="N147" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="O147" t="n">
+        <v>35</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-77.08</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>-76.56</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
+      <c r="S147" t="s">
+        <v>1183</v>
+      </c>
+      <c r="T147" t="s">
+        <v>1184</v>
+      </c>
+      <c r="U147" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V147" t="s">
+        <v>1186</v>
+      </c>
+      <c r="W147"/>
+      <c r="X147" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>180</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D148" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148"/>
+      <c r="G148" t="s">
+        <v>113</v>
+      </c>
+      <c r="H148" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L148" t="s">
+        <v>57</v>
+      </c>
+      <c r="M148" t="s">
+        <v>37</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-69</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-63</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-75</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>-65</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1</v>
+      </c>
+      <c r="S148" t="s">
+        <v>1190</v>
+      </c>
+      <c r="T148" t="s">
+        <v>1191</v>
+      </c>
+      <c r="U148" t="s">
+        <v>1192</v>
+      </c>
+      <c r="V148" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W148"/>
+      <c r="X148" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>181</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D149" t="s">
+        <v>543</v>
+      </c>
+      <c r="E149" t="s">
+        <v>780</v>
+      </c>
+      <c r="F149" t="s">
+        <v>781</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H149" t="s">
+        <v>69</v>
+      </c>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149" t="s">
+        <v>469</v>
+      </c>
+      <c r="L149" t="s">
+        <v>57</v>
+      </c>
+      <c r="M149" t="s">
+        <v>37</v>
+      </c>
+      <c r="N149" t="n">
+        <v>31.164</v>
+      </c>
+      <c r="O149" t="n">
+        <v>31.906</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-64.679</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>-63.773</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1</v>
+      </c>
+      <c r="S149" t="s">
+        <v>1197</v>
+      </c>
+      <c r="T149" t="s">
+        <v>1198</v>
+      </c>
+      <c r="U149" t="s">
+        <v>1199</v>
+      </c>
+      <c r="V149" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W149"/>
+      <c r="X149" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AB149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>182</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" t="s">
+        <v>31</v>
+      </c>
+      <c r="F150"/>
+      <c r="G150" t="s">
+        <v>835</v>
+      </c>
+      <c r="H150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I150" t="s">
+        <v>162</v>
+      </c>
+      <c r="J150"/>
+      <c r="K150" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L150" t="s">
+        <v>165</v>
+      </c>
+      <c r="M150" t="s">
+        <v>37</v>
+      </c>
+      <c r="N150" t="n">
+        <v>39</v>
+      </c>
+      <c r="O150" t="n">
+        <v>42</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>4</v>
+      </c>
+      <c r="R150"/>
+      <c r="S150" t="s">
+        <v>1208</v>
+      </c>
+      <c r="T150" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U150" t="s">
+        <v>1210</v>
+      </c>
+      <c r="V150" t="s">
+        <v>1211</v>
+      </c>
+      <c r="W150"/>
+      <c r="X150" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AB150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>183</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151" t="s">
+        <v>33</v>
+      </c>
+      <c r="I151" t="s">
+        <v>162</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L151" t="s">
+        <v>343</v>
+      </c>
+      <c r="M151" t="s">
+        <v>37</v>
+      </c>
+      <c r="N151" t="n">
+        <v>24</v>
+      </c>
+      <c r="O151" t="n">
+        <v>25</v>
+      </c>
+      <c r="P151" t="n">
+        <v>102</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>103</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1</v>
+      </c>
+      <c r="S151" t="s">
+        <v>1215</v>
+      </c>
+      <c r="T151" t="s">
+        <v>1216</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1217</v>
+      </c>
+      <c r="V151" t="s">
+        <v>1218</v>
+      </c>
+      <c r="W151"/>
+      <c r="X151" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>184</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D152" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152"/>
+      <c r="G152" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H152" t="s">
+        <v>69</v>
+      </c>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L152" t="s">
+        <v>343</v>
+      </c>
+      <c r="M152" t="s">
+        <v>37</v>
+      </c>
+      <c r="N152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O152" t="n">
+        <v>33</v>
+      </c>
+      <c r="P152" t="n">
+        <v>113</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>121</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152" t="s">
+        <v>1225</v>
+      </c>
+      <c r="V152" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W152"/>
+      <c r="X152" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AB152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>185</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D153" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153"/>
+      <c r="G153" t="s">
+        <v>226</v>
+      </c>
+      <c r="H153" t="s">
+        <v>33</v>
+      </c>
+      <c r="I153" t="s">
+        <v>162</v>
+      </c>
+      <c r="J153"/>
+      <c r="K153" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L153" t="s">
+        <v>343</v>
+      </c>
+      <c r="M153" t="s">
+        <v>37</v>
+      </c>
+      <c r="N153" t="n">
+        <v>31</v>
+      </c>
+      <c r="O153" t="n">
+        <v>32</v>
+      </c>
+      <c r="P153" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>118</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1</v>
+      </c>
+      <c r="S153" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T153" t="s">
+        <v>1231</v>
+      </c>
+      <c r="U153" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V153" t="s">
+        <v>1233</v>
+      </c>
+      <c r="W153"/>
+      <c r="X153" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>186</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154"/>
+      <c r="G154" t="s">
+        <v>124</v>
+      </c>
+      <c r="H154" t="s">
+        <v>33</v>
+      </c>
+      <c r="I154" t="s">
+        <v>142</v>
+      </c>
+      <c r="J154"/>
+      <c r="K154" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L154" t="s">
+        <v>343</v>
+      </c>
+      <c r="M154" t="s">
+        <v>37</v>
+      </c>
+      <c r="N154" t="n">
+        <v>43</v>
+      </c>
+      <c r="O154" t="n">
+        <v>49</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-74</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>-69</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="s">
+        <v>1237</v>
+      </c>
+      <c r="T154" t="s">
+        <v>1238</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1239</v>
+      </c>
+      <c r="V154" t="s">
+        <v>1240</v>
+      </c>
+      <c r="W154"/>
+      <c r="X154" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>188</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155"/>
+      <c r="G155" t="s">
+        <v>325</v>
+      </c>
+      <c r="H155" t="s">
+        <v>33</v>
+      </c>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L155" t="s">
+        <v>165</v>
+      </c>
+      <c r="M155" t="s">
+        <v>37</v>
+      </c>
+      <c r="N155" t="n">
+        <v>18</v>
+      </c>
+      <c r="O155" t="n">
+        <v>21</v>
+      </c>
+      <c r="P155" t="n">
+        <v>110</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>114</v>
+      </c>
+      <c r="R155"/>
+      <c r="S155" t="s">
+        <v>1246</v>
+      </c>
+      <c r="T155" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U155" t="s">
+        <v>1247</v>
+      </c>
+      <c r="V155" t="s">
+        <v>1248</v>
+      </c>
+      <c r="W155"/>
+      <c r="X155" t="s">
+        <v>1249</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>1250</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AB155"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>189</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" t="s">
+        <v>432</v>
+      </c>
+      <c r="F156"/>
+      <c r="G156" t="s">
+        <v>325</v>
+      </c>
+      <c r="H156" t="s">
+        <v>33</v>
+      </c>
+      <c r="I156" t="s">
+        <v>142</v>
+      </c>
+      <c r="J156"/>
+      <c r="K156" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L156" t="s">
+        <v>57</v>
+      </c>
+      <c r="M156" t="s">
+        <v>37</v>
+      </c>
+      <c r="N156" t="n">
+        <v>25</v>
+      </c>
+      <c r="O156" t="n">
+        <v>35</v>
+      </c>
+      <c r="P156" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>155</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1</v>
+      </c>
+      <c r="S156" t="s">
+        <v>1256</v>
+      </c>
+      <c r="T156" t="s">
+        <v>1257</v>
+      </c>
+      <c r="U156" t="s">
+        <v>1258</v>
+      </c>
+      <c r="V156" t="s">
+        <v>1259</v>
+      </c>
+      <c r="W156"/>
+      <c r="X156" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>190</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D157" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157"/>
+      <c r="G157" t="s">
+        <v>325</v>
+      </c>
+      <c r="H157" t="s">
+        <v>33</v>
+      </c>
+      <c r="I157" t="s">
+        <v>162</v>
+      </c>
+      <c r="J157"/>
+      <c r="K157" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L157" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M157" t="s">
+        <v>37</v>
+      </c>
+      <c r="N157" t="n">
+        <v>-23</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-21</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-45</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>-41</v>
+      </c>
+      <c r="R157"/>
+      <c r="S157" t="s">
+        <v>1263</v>
+      </c>
+      <c r="T157" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U157" t="s">
+        <v>1264</v>
+      </c>
+      <c r="V157" t="s">
+        <v>1265</v>
+      </c>
+      <c r="W157"/>
+      <c r="X157" t="s">
+        <v>1249</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>1250</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AB157"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>191</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158"/>
+      <c r="G158" t="s">
+        <v>407</v>
+      </c>
+      <c r="H158" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" t="s">
+        <v>142</v>
+      </c>
+      <c r="J158"/>
+      <c r="K158" t="s">
+        <v>1268</v>
+      </c>
+      <c r="L158" t="s">
+        <v>57</v>
+      </c>
+      <c r="M158" t="s">
+        <v>37</v>
+      </c>
+      <c r="N158" t="n">
+        <v>24</v>
+      </c>
+      <c r="O158" t="n">
+        <v>32</v>
+      </c>
+      <c r="P158" t="n">
+        <v>122</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>131</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="s">
+        <v>1269</v>
+      </c>
+      <c r="T158" t="s">
+        <v>1270</v>
+      </c>
+      <c r="U158" t="s">
+        <v>1271</v>
+      </c>
+      <c r="V158" t="s">
+        <v>1272</v>
+      </c>
+      <c r="W158"/>
+      <c r="X158" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AB158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>192</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D159" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" t="s">
+        <v>130</v>
+      </c>
+      <c r="F159"/>
+      <c r="G159" t="s">
+        <v>325</v>
+      </c>
+      <c r="H159" t="s">
+        <v>33</v>
+      </c>
+      <c r="I159" t="s">
+        <v>162</v>
+      </c>
+      <c r="J159"/>
+      <c r="K159" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L159" t="s">
+        <v>57</v>
+      </c>
+      <c r="M159" t="s">
+        <v>37</v>
+      </c>
+      <c r="N159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O159" t="n">
+        <v>37</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>-4</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159" t="s">
+        <v>1277</v>
+      </c>
+      <c r="V159" t="s">
+        <v>1278</v>
+      </c>
+      <c r="W159"/>
+      <c r="X159" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>193</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" t="s">
+        <v>130</v>
+      </c>
+      <c r="F160"/>
+      <c r="G160" t="s">
+        <v>325</v>
+      </c>
+      <c r="H160" t="s">
+        <v>33</v>
+      </c>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L160" t="s">
+        <v>343</v>
+      </c>
+      <c r="M160" t="s">
+        <v>37</v>
+      </c>
+      <c r="N160" t="n">
+        <v>32</v>
+      </c>
+      <c r="O160" t="n">
+        <v>35</v>
+      </c>
+      <c r="P160" t="n">
+        <v>113</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>117</v>
+      </c>
+      <c r="R160"/>
+      <c r="S160"/>
+      <c r="T160"/>
+      <c r="U160" t="s">
+        <v>1283</v>
+      </c>
+      <c r="V160" t="s">
+        <v>1284</v>
+      </c>
+      <c r="W160"/>
+      <c r="X160" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>194</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H161" t="s">
+        <v>33</v>
+      </c>
+      <c r="I161" t="s">
+        <v>162</v>
+      </c>
+      <c r="J161"/>
+      <c r="K161" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L161" t="s">
+        <v>165</v>
+      </c>
+      <c r="M161" t="s">
+        <v>1292</v>
+      </c>
+      <c r="N161" t="n">
+        <v>39.1251</v>
+      </c>
+      <c r="O161" t="n">
+        <v>39.1251</v>
+      </c>
+      <c r="P161" t="n">
+        <v>2.96032</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.96032</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161" t="s">
+        <v>1293</v>
+      </c>
+      <c r="V161" t="s">
+        <v>1294</v>
+      </c>
+      <c r="W161" t="s">
+        <v>1295</v>
+      </c>
+      <c r="X161" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AB161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>195</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D162" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162"/>
+      <c r="G162" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H162" t="s">
+        <v>33</v>
+      </c>
+      <c r="I162" t="s">
+        <v>162</v>
+      </c>
+      <c r="J162" t="s">
+        <v>163</v>
+      </c>
+      <c r="K162" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L162" t="s">
+        <v>343</v>
+      </c>
+      <c r="M162" t="s">
+        <v>37</v>
+      </c>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162" t="n">
+        <v>1</v>
+      </c>
+      <c r="S162" t="s">
+        <v>1304</v>
+      </c>
+      <c r="T162" t="s">
+        <v>1305</v>
+      </c>
+      <c r="U162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="V162" t="s">
+        <v>1307</v>
+      </c>
+      <c r="W162"/>
+      <c r="X162" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>1309</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>196</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163"/>
+      <c r="G163" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H163" t="s">
+        <v>69</v>
+      </c>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L163" t="s">
+        <v>343</v>
+      </c>
+      <c r="M163" t="s">
+        <v>37</v>
+      </c>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+      <c r="Q163"/>
+      <c r="R163" t="n">
+        <v>1</v>
+      </c>
+      <c r="S163" t="s">
+        <v>1314</v>
+      </c>
+      <c r="T163" t="s">
+        <v>1315</v>
+      </c>
+      <c r="U163" t="s">
+        <v>1316</v>
+      </c>
+      <c r="V163" t="s">
+        <v>1317</v>
+      </c>
+      <c r="W163"/>
+      <c r="X163" t="s">
+        <v>1318</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>197</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D164" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164"/>
+      <c r="G164" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H164" t="s">
+        <v>33</v>
+      </c>
+      <c r="I164" t="s">
+        <v>162</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K164" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L164" t="s">
+        <v>343</v>
+      </c>
+      <c r="M164" t="s">
+        <v>37</v>
+      </c>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+      <c r="Q164"/>
+      <c r="R164" t="n">
+        <v>1</v>
+      </c>
+      <c r="S164" t="s">
+        <v>1325</v>
+      </c>
+      <c r="T164" t="s">
+        <v>1326</v>
+      </c>
+      <c r="U164" t="s">
+        <v>1327</v>
+      </c>
+      <c r="V164" t="s">
+        <v>1328</v>
+      </c>
+      <c r="W164"/>
+      <c r="X164" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AB164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>198</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C165" t="s">
+        <v>885</v>
+      </c>
+      <c r="D165" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165"/>
+      <c r="G165" t="s">
+        <v>407</v>
+      </c>
+      <c r="H165" t="s">
+        <v>33</v>
+      </c>
+      <c r="I165" t="s">
+        <v>162</v>
+      </c>
+      <c r="J165"/>
+      <c r="K165" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L165" t="s">
+        <v>343</v>
+      </c>
+      <c r="M165" t="s">
+        <v>37</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165"/>
+      <c r="R165" t="n">
+        <v>1</v>
+      </c>
+      <c r="S165" t="s">
+        <v>886</v>
+      </c>
+      <c r="T165" t="s">
+        <v>1331</v>
+      </c>
+      <c r="U165" t="s">
+        <v>1332</v>
+      </c>
+      <c r="V165" t="s">
+        <v>889</v>
+      </c>
+      <c r="W165"/>
+      <c r="X165" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>200</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I166" t="s">
+        <v>162</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K166" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L166" t="s">
+        <v>343</v>
+      </c>
+      <c r="M166" t="s">
+        <v>37</v>
+      </c>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+      <c r="Q166"/>
+      <c r="R166" t="n">
+        <v>1</v>
+      </c>
+      <c r="S166" t="s">
+        <v>1338</v>
+      </c>
+      <c r="T166" t="s">
+        <v>1339</v>
+      </c>
+      <c r="U166" t="s">
+        <v>1340</v>
+      </c>
+      <c r="V166" t="s">
+        <v>1341</v>
+      </c>
+      <c r="W166"/>
+      <c r="X166" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>202</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D167" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" t="s">
+        <v>130</v>
+      </c>
+      <c r="F167"/>
+      <c r="G167" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L167" t="s">
+        <v>343</v>
+      </c>
+      <c r="M167" t="s">
+        <v>37</v>
+      </c>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+      <c r="Q167"/>
+      <c r="R167" t="n">
+        <v>1</v>
+      </c>
+      <c r="S167" t="s">
+        <v>1347</v>
+      </c>
+      <c r="T167" t="s">
+        <v>1348</v>
+      </c>
+      <c r="U167" t="s">
+        <v>1349</v>
+      </c>
+      <c r="V167" t="s">
+        <v>1350</v>
+      </c>
+      <c r="W167"/>
+      <c r="X167" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>612</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>203</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D168" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168" t="s">
+        <v>69</v>
+      </c>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L168" t="s">
+        <v>343</v>
+      </c>
+      <c r="M168" t="s">
+        <v>37</v>
+      </c>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+      <c r="Q168"/>
+      <c r="R168" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168"/>
+      <c r="T168" t="s">
+        <v>1354</v>
+      </c>
+      <c r="U168" t="s">
+        <v>1355</v>
+      </c>
+      <c r="V168" t="s">
+        <v>1356</v>
+      </c>
+      <c r="W168" t="s">
+        <v>1357</v>
+      </c>
+      <c r="X168" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>205</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E169" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L169" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M169" t="s">
+        <v>37</v>
+      </c>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169" t="n">
+        <v>1</v>
+      </c>
+      <c r="S169" t="s">
+        <v>132</v>
+      </c>
+      <c r="T169" t="s">
+        <v>1364</v>
+      </c>
+      <c r="U169" t="s">
+        <v>1365</v>
+      </c>
+      <c r="V169" t="s">
+        <v>1366</v>
+      </c>
+      <c r="W169"/>
+      <c r="X169" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>206</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E170" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L170" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M170" t="s">
+        <v>37</v>
+      </c>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+      <c r="Q170"/>
+      <c r="R170" t="n">
+        <v>1</v>
+      </c>
+      <c r="S170" t="s">
+        <v>253</v>
+      </c>
+      <c r="T170" t="s">
+        <v>1370</v>
+      </c>
+      <c r="U170" t="s">
+        <v>1365</v>
+      </c>
+      <c r="V170" t="s">
+        <v>1366</v>
+      </c>
+      <c r="W170"/>
+      <c r="X170" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB170"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
